--- a/Bosa_Quincenal.xlsx
+++ b/Bosa_Quincenal.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>38.087</v>
+        <v>37.48</v>
       </c>
       <c r="C2">
-        <v>0.013</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>37.314</v>
+        <v>36.1</v>
       </c>
       <c r="C3">
-        <v>0.026</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>36.542</v>
+        <v>34.721</v>
       </c>
       <c r="C4">
-        <v>0.046</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>35.769</v>
+        <v>33.342</v>
       </c>
       <c r="C5">
-        <v>0.046</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>34.997</v>
+        <v>31.962</v>
       </c>
       <c r="C6">
-        <v>0.052</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>34.224</v>
+        <v>30.583</v>
       </c>
       <c r="C7">
-        <v>0.059</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33.452</v>
+        <v>29.203</v>
       </c>
       <c r="C8">
-        <v>0.065</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32.679</v>
+        <v>27.824</v>
       </c>
       <c r="C9">
-        <v>0.065</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.907</v>
+        <v>26.444</v>
       </c>
       <c r="C10">
-        <v>0.065</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.135</v>
+        <v>25.065</v>
       </c>
       <c r="C11">
-        <v>0.079</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.362</v>
+        <v>23.686</v>
       </c>
       <c r="C12">
-        <v>0.079</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.59</v>
+        <v>22.306</v>
       </c>
       <c r="C13">
-        <v>0.098</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.817</v>
+        <v>20.927</v>
       </c>
       <c r="C14">
-        <v>0.111</v>
+        <v>1.074</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.045</v>
+        <v>19.547</v>
       </c>
       <c r="C15">
-        <v>0.137</v>
+        <v>1.597</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.272</v>
+        <v>18.168</v>
       </c>
       <c r="C16">
-        <v>0.301</v>
+        <v>2.023</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.5</v>
+        <v>16.788</v>
       </c>
       <c r="C17">
-        <v>0.412</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.727</v>
+        <v>15.409</v>
       </c>
       <c r="C18">
-        <v>0.484</v>
+        <v>3.856</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.955</v>
+        <v>14.03</v>
       </c>
       <c r="C19">
-        <v>0.57</v>
+        <v>5.447</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.182</v>
+        <v>12.65</v>
       </c>
       <c r="C20">
-        <v>0.655</v>
+        <v>7.411</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.41</v>
+        <v>11.271</v>
       </c>
       <c r="C21">
-        <v>0.759</v>
+        <v>10.265</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.637</v>
+        <v>9.891</v>
       </c>
       <c r="C22">
-        <v>0.805</v>
+        <v>13.512</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.865</v>
+        <v>8.512</v>
       </c>
       <c r="C23">
-        <v>0.89</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.092</v>
+        <v>7.132</v>
       </c>
       <c r="C24">
-        <v>1.061</v>
+        <v>27.149</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.32</v>
+        <v>5.753</v>
       </c>
       <c r="C25">
-        <v>1.329</v>
+        <v>38.291</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>19.547</v>
+        <v>4.374</v>
       </c>
       <c r="C26">
-        <v>1.597</v>
+        <v>54.933</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>18.775</v>
+        <v>2.994</v>
       </c>
       <c r="C27">
-        <v>1.833</v>
+        <v>78.684</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>18.002</v>
+        <v>1.615</v>
       </c>
       <c r="C28">
-        <v>2.082</v>
+        <v>90.848</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,251 +693,9 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>17.23</v>
+        <v>0.235</v>
       </c>
       <c r="C29">
-        <v>2.429</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>16.457</v>
-      </c>
-      <c r="C30">
-        <v>2.953</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>15.685</v>
-      </c>
-      <c r="C31">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>14.912</v>
-      </c>
-      <c r="C32">
-        <v>4.399</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>14.14</v>
-      </c>
-      <c r="C33">
-        <v>5.296</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>13.367</v>
-      </c>
-      <c r="C34">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>12.595</v>
-      </c>
-      <c r="C35">
-        <v>7.522</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>11.823</v>
-      </c>
-      <c r="C36">
-        <v>9.074</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>11.05</v>
-      </c>
-      <c r="C37">
-        <v>10.802</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>10.278</v>
-      </c>
-      <c r="C38">
-        <v>12.596</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>9.505000000000001</v>
-      </c>
-      <c r="C39">
-        <v>14.736</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>8.733000000000001</v>
-      </c>
-      <c r="C40">
-        <v>17.735</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>7.96</v>
-      </c>
-      <c r="C41">
-        <v>22.291</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>7.188</v>
-      </c>
-      <c r="C42">
-        <v>26.815</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>6.415</v>
-      </c>
-      <c r="C43">
-        <v>32.714</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>5.643</v>
-      </c>
-      <c r="C44">
-        <v>39.391</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>4.87</v>
-      </c>
-      <c r="C45">
-        <v>48.504</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>4.098</v>
-      </c>
-      <c r="C46">
-        <v>59.627</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>3.325</v>
-      </c>
-      <c r="C47">
-        <v>73.03400000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>2.553</v>
-      </c>
-      <c r="C48">
-        <v>83.771</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>1.78</v>
-      </c>
-      <c r="C49">
-        <v>89.98999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>1.008</v>
-      </c>
-      <c r="C50">
-        <v>93.65000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>0.235</v>
-      </c>
-      <c r="C51">
         <v>100</v>
       </c>
     </row>
